--- a/insurance_management/data/vehicle_info_template.xlsx
+++ b/insurance_management/data/vehicle_info_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t xml:space="preserve">Vehicle Type نوع السيارة</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Driver Insurance تأمين السائق</t>
   </si>
   <si>
-    <t xml:space="preserve">Repair نوع الإصلاح</t>
+    <t xml:space="preserve">Covering Maintenance نوع الإصلاح</t>
   </si>
   <si>
     <t xml:space="preserve">Value القيمة السوقية</t>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">NATIONALITY الجنسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_shop</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,6 +151,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,6 +237,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,6 +252,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -249,15 +322,16 @@
   </sheetPr>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB15" activeCellId="0" sqref="AB15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.19"/>
@@ -374,8 +448,8 @@
       <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
+      <c r="C2" s="0" t="n">
+        <v>2000</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>3</v>
@@ -386,8 +460,8 @@
       <c r="F2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>6</v>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>7</v>
